--- a/GWDEV/resources/TestSet.xlsx
+++ b/GWDEV/resources/TestSet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D94406-2492-9B4D-B184-3EF99208C009}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81750FBB-65A5-EF4C-9935-7E49D57D9A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>DS_InstaLogin</t>
+  </si>
+  <si>
+    <t>TS_InstaLogin1</t>
+  </si>
+  <si>
+    <t>DS_InstaLogin1</t>
   </si>
 </sst>
 </file>
@@ -629,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -706,8 +712,28 @@
       <c r="K2" s="7"/>
       <c r="L2" s="4"/>
     </row>
+    <row r="3" spans="1:12" s="3" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2">
+  <conditionalFormatting sqref="A1:A3">
     <cfRule type="duplicateValues" dxfId="1" priority="1142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
